--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H2">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I2">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J2">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N2">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q2">
-        <v>391.8595201537526</v>
+        <v>596.0909427100347</v>
       </c>
       <c r="R2">
-        <v>391.8595201537526</v>
+        <v>5364.818484390312</v>
       </c>
       <c r="S2">
-        <v>0.3040940348032551</v>
+        <v>0.3669930441884709</v>
       </c>
       <c r="T2">
-        <v>0.3040940348032551</v>
+        <v>0.3669930441884708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H3">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I3">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J3">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N3">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q3">
-        <v>226.7173678627819</v>
+        <v>243.1280216248809</v>
       </c>
       <c r="R3">
-        <v>226.7173678627819</v>
+        <v>2188.152194623928</v>
       </c>
       <c r="S3">
-        <v>0.175939068996757</v>
+        <v>0.1496857046308772</v>
       </c>
       <c r="T3">
-        <v>0.175939068996757</v>
+        <v>0.1496857046308772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H4">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I4">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J4">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N4">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q4">
-        <v>223.5689984197693</v>
+        <v>251.8694718696951</v>
       </c>
       <c r="R4">
-        <v>223.5689984197693</v>
+        <v>2266.825246827256</v>
       </c>
       <c r="S4">
-        <v>0.1734958455512699</v>
+        <v>0.1550675200655851</v>
       </c>
       <c r="T4">
-        <v>0.1734958455512699</v>
+        <v>0.1550675200655851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H5">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I5">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J5">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N5">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q5">
-        <v>166.7690187053802</v>
+        <v>185.3489328933493</v>
       </c>
       <c r="R5">
-        <v>166.7690187053802</v>
+        <v>1668.140396040144</v>
       </c>
       <c r="S5">
-        <v>0.129417460008118</v>
+        <v>0.1141130727643076</v>
       </c>
       <c r="T5">
-        <v>0.129417460008118</v>
+        <v>0.1141130727643075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H6">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I6">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J6">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N6">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q6">
-        <v>130.5922428206645</v>
+        <v>142.589027867632</v>
       </c>
       <c r="R6">
-        <v>130.5922428206645</v>
+        <v>1283.301250808688</v>
       </c>
       <c r="S6">
-        <v>0.1013432620388054</v>
+        <v>0.08778724462262502</v>
       </c>
       <c r="T6">
-        <v>0.1013432620388054</v>
+        <v>0.08778724462262501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H7">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I7">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J7">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N7">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q7">
-        <v>49.93867436085645</v>
+        <v>53.92274144786577</v>
       </c>
       <c r="R7">
-        <v>49.93867436085645</v>
+        <v>485.3046730307919</v>
       </c>
       <c r="S7">
-        <v>0.03875381915733527</v>
+        <v>0.03319840919738061</v>
       </c>
       <c r="T7">
-        <v>0.03875381915733527</v>
+        <v>0.03319840919738061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H8">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I8">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J8">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N8">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q8">
-        <v>32.67033587492595</v>
+        <v>0.5034378475103334</v>
       </c>
       <c r="R8">
-        <v>32.67033587492595</v>
+        <v>4.530940627593</v>
       </c>
       <c r="S8">
-        <v>0.02535310166940863</v>
+        <v>0.0003099496653606816</v>
       </c>
       <c r="T8">
-        <v>0.02535310166940863</v>
+        <v>0.0003099496653606814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H9">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I9">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J9">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N9">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q9">
-        <v>18.90200996992492</v>
+        <v>0.2053375401407778</v>
       </c>
       <c r="R9">
-        <v>18.90200996992492</v>
+        <v>1.848037861267</v>
       </c>
       <c r="S9">
-        <v>0.0146684926153906</v>
+        <v>0.0001264193825858777</v>
       </c>
       <c r="T9">
-        <v>0.0146684926153906</v>
+        <v>0.0001264193825858777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H10">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I10">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J10">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N10">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q10">
-        <v>18.63952231332488</v>
+        <v>0.2127202674732222</v>
       </c>
       <c r="R10">
-        <v>18.63952231332488</v>
+        <v>1.914482407259</v>
       </c>
       <c r="S10">
-        <v>0.0144647947939105</v>
+        <v>0.0001309646782513835</v>
       </c>
       <c r="T10">
-        <v>0.0144647947939105</v>
+        <v>0.0001309646782513835</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,49 +1098,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H11">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I11">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J11">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N11">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q11">
-        <v>13.90396194151111</v>
+        <v>0.1565393149406667</v>
       </c>
       <c r="R11">
-        <v>13.90396194151111</v>
+        <v>1.408853834466</v>
       </c>
       <c r="S11">
-        <v>0.01078986644215265</v>
+        <v>9.637596482186232E-05</v>
       </c>
       <c r="T11">
-        <v>0.01078986644215265</v>
+        <v>9.637596482186229E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1160,49 +1160,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H12">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I12">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J12">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N12">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q12">
-        <v>10.88781110622747</v>
+        <v>0.120425774198</v>
       </c>
       <c r="R12">
-        <v>10.88781110622747</v>
+        <v>1.083831967782</v>
       </c>
       <c r="S12">
-        <v>0.008449248363723079</v>
+        <v>7.414207850693021E-05</v>
       </c>
       <c r="T12">
-        <v>0.008449248363723079</v>
+        <v>7.41420785069302E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01471233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.044137</v>
+      </c>
+      <c r="I13">
+        <v>0.0007658900007253373</v>
+      </c>
+      <c r="J13">
+        <v>0.0007658900007253371</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.095449666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.286349</v>
+      </c>
+      <c r="O13">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="P13">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="Q13">
+        <v>0.04554128731255556</v>
+      </c>
+      <c r="R13">
+        <v>0.409871585813</v>
+      </c>
+      <c r="S13">
+        <v>2.803823119860197E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.803823119860196E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.774745</v>
+      </c>
+      <c r="H14">
+        <v>5.324235</v>
+      </c>
+      <c r="I14">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J14">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>34.218763</v>
+      </c>
+      <c r="N14">
+        <v>102.656289</v>
+      </c>
+      <c r="O14">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="P14">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="Q14">
+        <v>60.72957854043501</v>
+      </c>
+      <c r="R14">
+        <v>546.566206863915</v>
+      </c>
+      <c r="S14">
+        <v>0.0373891487086034</v>
+      </c>
+      <c r="T14">
+        <v>0.03738914870860339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.774745</v>
+      </c>
+      <c r="H15">
+        <v>5.324235</v>
+      </c>
+      <c r="I15">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J15">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.95683033333333</v>
+      </c>
+      <c r="N15">
+        <v>41.870491</v>
+      </c>
+      <c r="O15">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="P15">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="Q15">
+        <v>24.76981484993167</v>
+      </c>
+      <c r="R15">
+        <v>222.928333649385</v>
+      </c>
+      <c r="S15">
+        <v>0.01524993772667196</v>
+      </c>
+      <c r="T15">
+        <v>0.01524993772667196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.36517840485216</v>
-      </c>
-      <c r="H13">
-        <v>1.36517840485216</v>
-      </c>
-      <c r="I13">
-        <v>0.07695650944445932</v>
-      </c>
-      <c r="J13">
-        <v>0.07695650944445932</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.04979604542393</v>
-      </c>
-      <c r="N13">
-        <v>3.04979604542393</v>
-      </c>
-      <c r="O13">
-        <v>0.04198482471720914</v>
-      </c>
-      <c r="P13">
-        <v>0.04198482471720914</v>
-      </c>
-      <c r="Q13">
-        <v>4.163515700416267</v>
-      </c>
-      <c r="R13">
-        <v>4.163515700416267</v>
-      </c>
-      <c r="S13">
-        <v>0.003231005559873875</v>
-      </c>
-      <c r="T13">
-        <v>0.003231005559873875</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.774745</v>
+      </c>
+      <c r="H16">
+        <v>5.324235</v>
+      </c>
+      <c r="I16">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J16">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.45863566666667</v>
+      </c>
+      <c r="N16">
+        <v>43.375907</v>
+      </c>
+      <c r="O16">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="P16">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="Q16">
+        <v>25.66039135623833</v>
+      </c>
+      <c r="R16">
+        <v>230.943522206145</v>
+      </c>
+      <c r="S16">
+        <v>0.01579823557808086</v>
+      </c>
+      <c r="T16">
+        <v>0.01579823557808086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.774745</v>
+      </c>
+      <c r="H17">
+        <v>5.324235</v>
+      </c>
+      <c r="I17">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J17">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.640006</v>
+      </c>
+      <c r="N17">
+        <v>31.920018</v>
+      </c>
+      <c r="O17">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="P17">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="Q17">
+        <v>18.88329744847</v>
+      </c>
+      <c r="R17">
+        <v>169.94967703623</v>
+      </c>
+      <c r="S17">
+        <v>0.01162580794035227</v>
+      </c>
+      <c r="T17">
+        <v>0.01162580794035227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.774745</v>
+      </c>
+      <c r="H18">
+        <v>5.324235</v>
+      </c>
+      <c r="I18">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J18">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.185362</v>
+      </c>
+      <c r="N18">
+        <v>24.556086</v>
+      </c>
+      <c r="O18">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="P18">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="Q18">
+        <v>14.52693028269</v>
+      </c>
+      <c r="R18">
+        <v>130.74237254421</v>
+      </c>
+      <c r="S18">
+        <v>0.008943739931561853</v>
+      </c>
+      <c r="T18">
+        <v>0.008943739931561853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.774745</v>
+      </c>
+      <c r="H19">
+        <v>5.324235</v>
+      </c>
+      <c r="I19">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J19">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.095449666666667</v>
+      </c>
+      <c r="N19">
+        <v>9.286349</v>
+      </c>
+      <c r="O19">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="P19">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="Q19">
+        <v>5.493633818668333</v>
+      </c>
+      <c r="R19">
+        <v>49.44270436801499</v>
+      </c>
+      <c r="S19">
+        <v>0.003382244644758106</v>
+      </c>
+      <c r="T19">
+        <v>0.003382244644758105</v>
       </c>
     </row>
   </sheetData>
